--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="107">
   <si>
     <t>Sprint Backlog Template:
 - Rollover unclosed user stories from the preivious sprint. 
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>enemies do not currently attack, waiting on weapon system</t>
+  </si>
+  <si>
+    <t>item abilities are waiting until the unique weapons are in working</t>
+  </si>
+  <si>
+    <t>implementing in progress, collisions are working but the items changes to the weapons are not in place. Pending the different weapons are implemented</t>
   </si>
 </sst>
 </file>
@@ -1146,6 +1152,37 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1153,37 +1190,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1517,11 +1523,11 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -2061,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2111,406 +2117,406 @@
       <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="82" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="85"/>
-    </row>
-    <row r="6" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="85" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="83"/>
+    </row>
+    <row r="6" spans="1:7" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
+      <c r="B6" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="85" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="85" t="s">
+      <c r="G8" s="83"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+    </row>
+    <row r="10" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="84"/>
+      <c r="B10" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="84"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+    </row>
+    <row r="12" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="84"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="84"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+    </row>
+    <row r="16" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="94.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="84"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="84"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+    </row>
+    <row r="19" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="84" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+    </row>
+    <row r="21" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="83"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="83"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="85" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="85" t="s">
+      <c r="G22" s="83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="83"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="87"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+    </row>
+    <row r="26" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="85" t="s">
+      <c r="E26" s="87"/>
+      <c r="F26" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="85"/>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-    </row>
-    <row r="10" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="85" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-    </row>
-    <row r="12" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="85" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="85" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-    </row>
-    <row r="16" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="94.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-    </row>
-    <row r="19" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-    </row>
-    <row r="21" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="85" t="s">
+      <c r="G26" s="87"/>
+    </row>
+    <row r="27" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="87"/>
+      <c r="B27" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="89"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-    </row>
-    <row r="26" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="90" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="89"/>
-    </row>
-    <row r="27" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="89"/>
-      <c r="B27" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="89" t="s">
+      <c r="G27" s="87" t="s">
         <v>102</v>
       </c>
     </row>

--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -5,15 +5,16 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="127">
   <si>
     <t>Sprint Backlog Template:
 - Rollover unclosed user stories from the preivious sprint. 
@@ -362,6 +363,66 @@
   </si>
   <si>
     <t>implementing in progress, collisions are working but the items changes to the weapons are not in place. Pending the different weapons are implemented</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Dates: Oct. 1, 2015 - Oct. 15, 2015</t>
+  </si>
+  <si>
+    <t>As a player, I want to be able to read what each weapons does.</t>
+  </si>
+  <si>
+    <t>As a player, I want to see information about the enemies on the level.</t>
+  </si>
+  <si>
+    <t>As a player, I want to have the ability to select different difficulty settings.</t>
+  </si>
+  <si>
+    <t>As a player, I want exciting sounds/music.</t>
+  </si>
+  <si>
+    <t>As a player, I want to choose to have music and sound effect on or off.</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Brain</t>
+  </si>
+  <si>
+    <t>The selection screen displays</t>
+  </si>
+  <si>
+    <t>Other ships are able to be played</t>
+  </si>
+  <si>
+    <t>Enemies take different amounts of daamge or certain weapon types to deal extra damage</t>
+  </si>
+  <si>
+    <t>The user is able to learn how to play</t>
+  </si>
+  <si>
+    <t>The user can eitehr pause or over over a enemy to see what it does</t>
+  </si>
+  <si>
+    <t>The user can either pause or hover over the item or upgrade to see what it does</t>
+  </si>
+  <si>
+    <t>the mouse can be used as the only input device for the game</t>
+  </si>
+  <si>
+    <t>cheats can change or do different effects on the game</t>
+  </si>
+  <si>
+    <t>sound is  playing on the game and loops properly</t>
+  </si>
+  <si>
+    <t>the sound is able to be paused or audio level changed</t>
   </si>
 </sst>
 </file>
@@ -857,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1190,6 +1251,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2067,7 +2131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2139,7 +2203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
         <v>10</v>
       </c>
@@ -2439,7 +2503,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="83"/>
       <c r="B23" s="83"/>
       <c r="C23" s="86" t="s">
@@ -2602,4 +2666,528 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.85546875" style="80" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="17.28515625" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="64"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
+    </row>
+    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="83"/>
+    </row>
+    <row r="6" spans="1:7" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
+      <c r="B6" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="83"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+    </row>
+    <row r="10" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="84"/>
+      <c r="B10" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="84"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+    </row>
+    <row r="12" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="84"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+    </row>
+    <row r="14" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+    </row>
+    <row r="15" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="84"/>
+      <c r="B15" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="84"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+    </row>
+    <row r="17" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="83"/>
+      <c r="C18" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="83"/>
+      <c r="B19" s="83"/>
+      <c r="E19" s="65"/>
+    </row>
+    <row r="20" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+    </row>
+    <row r="21" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="83"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+    </row>
+    <row r="22" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="87"/>
+      <c r="B23" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+    </row>
+    <row r="24" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="87"/>
+      <c r="B24" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="87"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+    </row>
+    <row r="26" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="87"/>
+    </row>
+    <row r="27" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="87"/>
+      <c r="B27" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="87" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E30" s="65"/>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E31" s="65"/>
+    </row>
+    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E32" s="65"/>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E33" s="65"/>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E34" s="65"/>
+    </row>
+    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E35" s="65"/>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E36" s="65"/>
+    </row>
+    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E37" s="65"/>
+    </row>
+    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E38" s="65"/>
+    </row>
+    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E39" s="65"/>
+    </row>
+    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E40" s="65"/>
+    </row>
+    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E41" s="65"/>
+    </row>
+    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E42" s="65"/>
+    </row>
+    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E43" s="65"/>
+    </row>
+    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E44" s="65"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="70"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="72"/>
+    </row>
+    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="129">
   <si>
     <t>Sprint Backlog Template:
 - Rollover unclosed user stories from the preivious sprint. 
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t>the sound is able to be paused or audio level changed</t>
+  </si>
+  <si>
+    <t>Mechanics work. May polish later and add some animation if time allows</t>
+  </si>
+  <si>
+    <t>base level bullets are implementd, higher level bullets are not. Bullet animation is not implemented</t>
   </si>
 </sst>
 </file>
@@ -1244,6 +1250,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1251,9 +1260,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1587,11 +1593,11 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -2056,7 +2062,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="55"/>
       <c r="C30" s="30" t="s">
@@ -2672,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2755,7 +2761,7 @@
       <c r="F5" s="84"/>
       <c r="G5" s="83"/>
     </row>
-    <row r="6" spans="1:7" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="83" t="s">
         <v>18</v>
@@ -2770,10 +2776,10 @@
         <v>53</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G6" s="83" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
@@ -2789,13 +2795,11 @@
         <v>54</v>
       </c>
       <c r="F7" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="83" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="G7" s="83"/>
+    </row>
+    <row r="8" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="83" t="s">
@@ -2810,7 +2814,9 @@
       <c r="F8" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="83"/>
+      <c r="G8" s="83" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="83"/>
@@ -2902,7 +2908,7 @@
     </row>
     <row r="15" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="84"/>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="89" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="84"/>
@@ -2974,7 +2980,7 @@
       <c r="A20" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="89" t="s">
         <v>111</v>
       </c>
       <c r="C20" s="86"/>
@@ -2989,7 +2995,7 @@
     </row>
     <row r="21" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="83"/>
-      <c r="B21" s="91"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="86"/>
       <c r="D21" s="86"/>
       <c r="E21" s="83"/>
@@ -3019,7 +3025,7 @@
     </row>
     <row r="23" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="87"/>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="89" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="87"/>
@@ -3034,7 +3040,7 @@
     </row>
     <row r="24" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="87"/>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="89" t="s">
         <v>110</v>
       </c>
       <c r="C24" s="87"/>
@@ -3049,7 +3055,7 @@
     </row>
     <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="87"/>
-      <c r="B25" s="91"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="87"/>
       <c r="D25" s="87"/>
       <c r="E25" s="87"/>
@@ -3098,7 +3104,7 @@
       <c r="A28" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="89" t="s">
         <v>112</v>
       </c>
       <c r="D28" s="65" t="s">
@@ -3109,7 +3115,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="89" t="s">
         <v>113</v>
       </c>
       <c r="D29" s="65" t="s">

--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="129">
   <si>
     <t>Sprint Backlog Template:
 - Rollover unclosed user stories from the preivious sprint. 
@@ -665,11 +660,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -678,14 +673,14 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -694,7 +689,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
@@ -705,216 +700,216 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1321,7 +1316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1356,7 +1351,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1571,19 +1566,19 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="68" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="43" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="17.28515625" style="3"/>
+    <col min="6" max="6" width="9.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.5" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="17.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1592,14 +1587,14 @@
       <c r="F1" s="6"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="63" customHeight="1">
       <c r="A2" s="90" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1612,7 +1607,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="39" customHeight="1" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
@@ -1635,7 +1630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="54">
       <c r="A5" s="23" t="s">
         <v>10</v>
       </c>
@@ -1656,7 +1651,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18">
       <c r="A6" s="27"/>
       <c r="B6" s="28"/>
       <c r="C6" s="29" t="s">
@@ -1673,7 +1668,7 @@
       </c>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="72">
       <c r="A7" s="27"/>
       <c r="B7" s="31" t="s">
         <v>18</v>
@@ -1694,7 +1689,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="37" thickBot="1">
       <c r="A8" s="32"/>
       <c r="B8" s="33"/>
       <c r="C8" s="10" t="s">
@@ -1713,7 +1708,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="37" thickBot="1">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="37" t="s">
@@ -1732,7 +1727,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="19" thickBot="1">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
       <c r="C10" s="39"/>
@@ -1741,7 +1736,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="37" thickBot="1">
       <c r="A11" s="40" t="s">
         <v>11</v>
       </c>
@@ -1762,7 +1757,7 @@
       </c>
       <c r="G11" s="44"/>
     </row>
-    <row r="12" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="19" thickBot="1">
       <c r="A12" s="45"/>
       <c r="B12" s="45"/>
       <c r="C12" s="46"/>
@@ -1771,7 +1766,7 @@
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
     </row>
-    <row r="13" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="36">
       <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
@@ -1790,7 +1785,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="72">
       <c r="A14" s="27"/>
       <c r="B14" s="31" t="s">
         <v>26</v>
@@ -1809,7 +1804,7 @@
       </c>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="73" thickBot="1">
       <c r="A15" s="32"/>
       <c r="B15" s="34" t="s">
         <v>36</v>
@@ -1828,7 +1823,7 @@
       </c>
       <c r="G15" s="35"/>
     </row>
-    <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="19" thickBot="1">
       <c r="A16" s="49"/>
       <c r="B16" s="47"/>
       <c r="C16" s="46"/>
@@ -1837,7 +1832,7 @@
       <c r="F16" s="49"/>
       <c r="G16" s="47"/>
     </row>
-    <row r="17" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="36">
       <c r="A17" s="23" t="s">
         <v>13</v>
       </c>
@@ -1856,7 +1851,7 @@
       </c>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="36">
       <c r="A18" s="27"/>
       <c r="B18" s="29" t="s">
         <v>40</v>
@@ -1877,7 +1872,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="19" thickBot="1">
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="C19" s="46"/>
@@ -1886,7 +1881,7 @@
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
     </row>
-    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="72">
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
@@ -1909,7 +1904,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="36">
       <c r="A21" s="27"/>
       <c r="B21" s="28"/>
       <c r="C21" s="29" t="s">
@@ -1928,7 +1923,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="37" thickBot="1">
       <c r="A22" s="32"/>
       <c r="B22" s="33"/>
       <c r="C22" s="34" t="s">
@@ -1947,7 +1942,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="19" thickBot="1">
       <c r="A23" s="49"/>
       <c r="B23" s="49"/>
       <c r="C23" s="47"/>
@@ -1956,7 +1951,7 @@
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
     </row>
-    <row r="24" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="54">
       <c r="A24" s="50" t="s">
         <v>15</v>
       </c>
@@ -1979,7 +1974,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="37" thickBot="1">
       <c r="A25" s="32"/>
       <c r="B25" s="33"/>
       <c r="C25" s="33" t="s">
@@ -1998,7 +1993,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="19" thickBot="1">
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
@@ -2007,7 +2002,7 @@
       <c r="F26" s="49"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="55" thickBot="1">
       <c r="A27" s="40" t="s">
         <v>34</v>
       </c>
@@ -2030,7 +2025,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="19" thickBot="1">
       <c r="A28" s="45"/>
       <c r="B28" s="47"/>
       <c r="C28" s="49"/>
@@ -2039,7 +2034,7 @@
       <c r="F28" s="49"/>
       <c r="G28" s="49"/>
     </row>
-    <row r="29" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="36">
       <c r="A29" s="53" t="s">
         <v>37</v>
       </c>
@@ -2062,7 +2057,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="36">
       <c r="A30" s="54"/>
       <c r="B30" s="55"/>
       <c r="C30" s="30" t="s">
@@ -2081,7 +2076,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="57.75" customHeight="1">
       <c r="A31" s="54"/>
       <c r="B31" s="55"/>
       <c r="C31" s="56" t="s">
@@ -2100,7 +2095,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="58"/>
       <c r="B32" s="59"/>
       <c r="C32" s="60" t="s">
@@ -2124,7 +2119,7 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2137,23 +2132,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="69" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" style="65" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.85546875" style="80" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="17.28515625" style="65"/>
+    <col min="1" max="1" width="19.6640625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.83203125" style="80" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="17.33203125" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="62"/>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -2162,7 +2157,7 @@
       <c r="F1" s="62"/>
       <c r="G1" s="64"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
@@ -2173,7 +2168,7 @@
       <c r="F2" s="75"/>
       <c r="G2" s="76"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="66" t="s">
         <v>9</v>
       </c>
@@ -2186,7 +2181,7 @@
       <c r="F3" s="68"/>
       <c r="G3" s="69"/>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31" thickBot="1">
       <c r="A4" s="81" t="s">
         <v>2</v>
       </c>
@@ -2209,7 +2204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19" thickBot="1">
       <c r="A5" s="83" t="s">
         <v>10</v>
       </c>
@@ -2220,7 +2215,7 @@
       <c r="F5" s="84"/>
       <c r="G5" s="83"/>
     </row>
-    <row r="6" spans="1:7" ht="113.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="91" thickBot="1">
       <c r="A6" s="84"/>
       <c r="B6" s="83" t="s">
         <v>18</v>
@@ -2241,7 +2236,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="55" thickBot="1">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="83" t="s">
@@ -2260,7 +2255,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="37" thickBot="1">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="83" t="s">
@@ -2277,7 +2272,7 @@
       </c>
       <c r="G8" s="83"/>
     </row>
-    <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="19" thickBot="1">
       <c r="A9" s="83"/>
       <c r="B9" s="83"/>
       <c r="C9" s="83"/>
@@ -2286,7 +2281,7 @@
       <c r="F9" s="83"/>
       <c r="G9" s="83"/>
     </row>
-    <row r="10" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="37" thickBot="1">
       <c r="A10" s="84"/>
       <c r="B10" s="83" t="s">
         <v>40</v>
@@ -2307,7 +2302,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="19" thickBot="1">
       <c r="A11" s="84"/>
       <c r="B11" s="84"/>
       <c r="C11" s="83"/>
@@ -2316,7 +2311,7 @@
       <c r="F11" s="83"/>
       <c r="G11" s="83"/>
     </row>
-    <row r="12" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="55" thickBot="1">
       <c r="A12" s="83" t="s">
         <v>14</v>
       </c>
@@ -2339,7 +2334,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="37" thickBot="1">
       <c r="A13" s="84"/>
       <c r="B13" s="84"/>
       <c r="C13" s="83" t="s">
@@ -2358,7 +2353,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="37" thickBot="1">
       <c r="A14" s="84"/>
       <c r="B14" s="84"/>
       <c r="C14" s="83" t="s">
@@ -2377,7 +2372,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="19" thickBot="1">
       <c r="A15" s="84"/>
       <c r="B15" s="84"/>
       <c r="C15" s="83"/>
@@ -2386,7 +2381,7 @@
       <c r="F15" s="83"/>
       <c r="G15" s="83"/>
     </row>
-    <row r="16" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="55" thickBot="1">
       <c r="A16" s="84" t="s">
         <v>15</v>
       </c>
@@ -2409,7 +2404,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="94.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="73" thickBot="1">
       <c r="A17" s="84"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84" t="s">
@@ -2428,7 +2423,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="19" thickBot="1">
       <c r="A18" s="84"/>
       <c r="B18" s="84"/>
       <c r="C18" s="84"/>
@@ -2437,7 +2432,7 @@
       <c r="F18" s="84"/>
       <c r="G18" s="84"/>
     </row>
-    <row r="19" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="37" thickBot="1">
       <c r="A19" s="83" t="s">
         <v>34</v>
       </c>
@@ -2460,7 +2455,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="19" thickBot="1">
       <c r="A20" s="85" t="s">
         <v>37</v>
       </c>
@@ -2471,7 +2466,7 @@
       <c r="F20" s="84"/>
       <c r="G20" s="84"/>
     </row>
-    <row r="21" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="37" thickBot="1">
       <c r="A21" s="83"/>
       <c r="B21" s="83"/>
       <c r="C21" s="83" t="s">
@@ -2490,7 +2485,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="37" thickBot="1">
       <c r="A22" s="83"/>
       <c r="B22" s="83"/>
       <c r="C22" s="86" t="s">
@@ -2509,7 +2504,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="37" thickBot="1">
       <c r="A23" s="83"/>
       <c r="B23" s="83"/>
       <c r="C23" s="86" t="s">
@@ -2528,7 +2523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="37" thickBot="1">
       <c r="A24" s="87" t="s">
         <v>92</v>
       </c>
@@ -2547,7 +2542,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="19" thickBot="1">
       <c r="A25" s="87"/>
       <c r="B25" s="88"/>
       <c r="C25" s="87"/>
@@ -2556,7 +2551,7 @@
       <c r="F25" s="87"/>
       <c r="G25" s="87"/>
     </row>
-    <row r="26" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="37" thickBot="1">
       <c r="A26" s="87" t="s">
         <v>11</v>
       </c>
@@ -2573,7 +2568,7 @@
       </c>
       <c r="G26" s="87"/>
     </row>
-    <row r="27" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="37" thickBot="1">
       <c r="A27" s="87"/>
       <c r="B27" s="88" t="s">
         <v>95</v>
@@ -2590,58 +2585,58 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12">
       <c r="E28" s="65"/>
     </row>
-    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="12">
       <c r="E29" s="65"/>
     </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12">
       <c r="E30" s="65"/>
     </row>
-    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="12">
       <c r="E31" s="65"/>
     </row>
-    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="12">
       <c r="E32" s="65"/>
     </row>
-    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="12">
       <c r="E33" s="65"/>
     </row>
-    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="12">
       <c r="E34" s="65"/>
     </row>
-    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="12">
       <c r="E35" s="65"/>
     </row>
-    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12">
       <c r="E36" s="65"/>
     </row>
-    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="12">
       <c r="E37" s="65"/>
     </row>
-    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="12">
       <c r="E38" s="65"/>
     </row>
-    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="12">
       <c r="E39" s="65"/>
     </row>
-    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="12">
       <c r="E40" s="65"/>
     </row>
-    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="12">
       <c r="E41" s="65"/>
     </row>
-    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="12">
       <c r="E42" s="65"/>
     </row>
-    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="12">
       <c r="E43" s="65"/>
     </row>
-    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="12">
       <c r="E44" s="65"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="70"/>
       <c r="B45" s="71"/>
       <c r="C45" s="72"/>
@@ -2650,22 +2645,22 @@
       <c r="F45" s="73"/>
       <c r="G45" s="72"/>
     </row>
-    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:7" ht="12"/>
+    <row r="47" spans="1:7" ht="12"/>
+    <row r="48" spans="1:7" ht="12"/>
+    <row r="49" ht="12"/>
+    <row r="50" ht="12"/>
+    <row r="51" ht="12"/>
+    <row r="52" ht="12"/>
+    <row r="53" ht="12"/>
+    <row r="54" ht="12"/>
+    <row r="55" ht="12"/>
+    <row r="56" ht="12"/>
+    <row r="57" ht="12"/>
+    <row r="58" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2678,23 +2673,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="69" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" style="65" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.85546875" style="80" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="17.28515625" style="65"/>
+    <col min="1" max="1" width="19.6640625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.83203125" style="80" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="17.33203125" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="62"/>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -2703,7 +2698,7 @@
       <c r="F1" s="62"/>
       <c r="G1" s="64"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
@@ -2714,7 +2709,7 @@
       <c r="F2" s="75"/>
       <c r="G2" s="76"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="66" t="s">
         <v>107</v>
       </c>
@@ -2727,7 +2722,7 @@
       <c r="F3" s="68"/>
       <c r="G3" s="69"/>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31" thickBot="1">
       <c r="A4" s="81" t="s">
         <v>2</v>
       </c>
@@ -2750,7 +2745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19" thickBot="1">
       <c r="A5" s="83" t="s">
         <v>10</v>
       </c>
@@ -2761,7 +2756,7 @@
       <c r="F5" s="84"/>
       <c r="G5" s="83"/>
     </row>
-    <row r="6" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="55" thickBot="1">
       <c r="A6" s="84"/>
       <c r="B6" s="83" t="s">
         <v>18</v>
@@ -2782,7 +2777,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="55" thickBot="1">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="83" t="s">
@@ -2799,7 +2794,7 @@
       </c>
       <c r="G7" s="83"/>
     </row>
-    <row r="8" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="55" thickBot="1">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="83" t="s">
@@ -2818,7 +2813,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="19" thickBot="1">
       <c r="A9" s="83"/>
       <c r="B9" s="83"/>
       <c r="C9" s="83"/>
@@ -2827,7 +2822,7 @@
       <c r="F9" s="83"/>
       <c r="G9" s="83"/>
     </row>
-    <row r="10" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="37" thickBot="1">
       <c r="A10" s="84"/>
       <c r="B10" s="83" t="s">
         <v>40</v>
@@ -2848,7 +2843,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="19" thickBot="1">
       <c r="A11" s="84"/>
       <c r="B11" s="84"/>
       <c r="C11" s="83"/>
@@ -2857,7 +2852,7 @@
       <c r="F11" s="83"/>
       <c r="G11" s="83"/>
     </row>
-    <row r="12" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="55" thickBot="1">
       <c r="A12" s="83" t="s">
         <v>14</v>
       </c>
@@ -2880,7 +2875,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="19" thickBot="1">
       <c r="A13" s="84"/>
       <c r="B13" s="84"/>
       <c r="C13" s="83"/>
@@ -2889,7 +2884,7 @@
       <c r="F13" s="83"/>
       <c r="G13" s="83"/>
     </row>
-    <row r="14" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="37" thickBot="1">
       <c r="A14" s="84" t="s">
         <v>15</v>
       </c>
@@ -2906,7 +2901,7 @@
       <c r="F14" s="84"/>
       <c r="G14" s="84"/>
     </row>
-    <row r="15" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="37" thickBot="1">
       <c r="A15" s="84"/>
       <c r="B15" s="89" t="s">
         <v>26</v>
@@ -2921,7 +2916,7 @@
       <c r="F15" s="84"/>
       <c r="G15" s="84"/>
     </row>
-    <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="19" thickBot="1">
       <c r="A16" s="84"/>
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
@@ -2930,7 +2925,7 @@
       <c r="F16" s="84"/>
       <c r="G16" s="84"/>
     </row>
-    <row r="17" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="37" thickBot="1">
       <c r="A17" s="83" t="s">
         <v>34</v>
       </c>
@@ -2953,7 +2948,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="37" thickBot="1">
       <c r="B18" s="83"/>
       <c r="C18" s="86" t="s">
         <v>42</v>
@@ -2971,12 +2966,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="19" thickBot="1">
       <c r="A19" s="83"/>
       <c r="B19" s="83"/>
       <c r="E19" s="65"/>
     </row>
-    <row r="20" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="37" thickBot="1">
       <c r="A20" s="85" t="s">
         <v>37</v>
       </c>
@@ -2993,7 +2988,7 @@
       <c r="F20" s="83"/>
       <c r="G20" s="83"/>
     </row>
-    <row r="21" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="19" thickBot="1">
       <c r="A21" s="83"/>
       <c r="B21" s="89"/>
       <c r="C21" s="86"/>
@@ -3002,7 +2997,7 @@
       <c r="F21" s="83"/>
       <c r="G21" s="83"/>
     </row>
-    <row r="22" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="37" thickBot="1">
       <c r="A22" s="87" t="s">
         <v>92</v>
       </c>
@@ -3017,13 +3012,13 @@
         <v>120</v>
       </c>
       <c r="F22" s="87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="87" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="19" thickBot="1">
       <c r="A23" s="87"/>
       <c r="B23" s="89" t="s">
         <v>109</v>
@@ -3035,10 +3030,12 @@
       <c r="E23" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="87"/>
+      <c r="F23" s="87" t="s">
+        <v>76</v>
+      </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="27" thickBot="1">
       <c r="A24" s="87"/>
       <c r="B24" s="89" t="s">
         <v>110</v>
@@ -3050,10 +3047,12 @@
       <c r="E24" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="87"/>
+      <c r="F24" s="87" t="s">
+        <v>76</v>
+      </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="19" thickBot="1">
       <c r="A25" s="87"/>
       <c r="B25" s="89"/>
       <c r="C25" s="87"/>
@@ -3062,7 +3061,7 @@
       <c r="F25" s="87"/>
       <c r="G25" s="87"/>
     </row>
-    <row r="26" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="37" thickBot="1">
       <c r="A26" s="87" t="s">
         <v>11</v>
       </c>
@@ -3081,7 +3080,7 @@
       </c>
       <c r="G26" s="87"/>
     </row>
-    <row r="27" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="37" thickBot="1">
       <c r="A27" s="87"/>
       <c r="B27" s="88" t="s">
         <v>95</v>
@@ -3100,7 +3099,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12">
       <c r="A28" s="65" t="s">
         <v>114</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="24">
       <c r="B29" s="89" t="s">
         <v>113</v>
       </c>
@@ -3125,52 +3124,52 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12">
       <c r="E30" s="65"/>
     </row>
-    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="12">
       <c r="E31" s="65"/>
     </row>
-    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="12">
       <c r="E32" s="65"/>
     </row>
-    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="12">
       <c r="E33" s="65"/>
     </row>
-    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="12">
       <c r="E34" s="65"/>
     </row>
-    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="12">
       <c r="E35" s="65"/>
     </row>
-    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12">
       <c r="E36" s="65"/>
     </row>
-    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="12">
       <c r="E37" s="65"/>
     </row>
-    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="12">
       <c r="E38" s="65"/>
     </row>
-    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="12">
       <c r="E39" s="65"/>
     </row>
-    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="12">
       <c r="E40" s="65"/>
     </row>
-    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="12">
       <c r="E41" s="65"/>
     </row>
-    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="12">
       <c r="E42" s="65"/>
     </row>
-    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="12">
       <c r="E43" s="65"/>
     </row>
-    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="12">
       <c r="E44" s="65"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="70"/>
       <c r="B45" s="71"/>
       <c r="C45" s="72"/>
@@ -3179,21 +3178,26 @@
       <c r="F45" s="73"/>
       <c r="G45" s="72"/>
     </row>
-    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:7" ht="12"/>
+    <row r="47" spans="1:7" ht="12"/>
+    <row r="48" spans="1:7" ht="12"/>
+    <row r="49" ht="12"/>
+    <row r="50" ht="12"/>
+    <row r="51" ht="12"/>
+    <row r="52" ht="12"/>
+    <row r="53" ht="12"/>
+    <row r="54" ht="12"/>
+    <row r="55" ht="12"/>
+    <row r="56" ht="12"/>
+    <row r="57" ht="12"/>
+    <row r="58" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="136">
   <si>
     <t>Sprint Backlog Template:
 - Rollover unclosed user stories from the preivious sprint. 
@@ -401,9 +401,6 @@
     <t>Other ships are able to be played</t>
   </si>
   <si>
-    <t>Enemies take different amounts of daamge or certain weapon types to deal extra damage</t>
-  </si>
-  <si>
     <t>The user is able to learn how to play</t>
   </si>
   <si>
@@ -425,17 +422,41 @@
     <t>the sound is able to be paused or audio level changed</t>
   </si>
   <si>
-    <t>Mechanics work. May polish later and add some animation if time allows</t>
-  </si>
-  <si>
-    <t>base level bullets are implementd, higher level bullets are not. Bullet animation is not implemented</t>
+    <t>needs to be cleaned up due to introduction of bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done </t>
+  </si>
+  <si>
+    <t>base level bullets are implementd, higher level bullets are not</t>
+  </si>
+  <si>
+    <t>api hooks created for use for weapon and ship classes to damage enemies</t>
+  </si>
+  <si>
+    <t>Enemies take different amounts of damge or certain weapon types to deal extra damage</t>
+  </si>
+  <si>
+    <t>waiting on higher level weapons to be implemented</t>
+  </si>
+  <si>
+    <t>pending all items integrated</t>
+  </si>
+  <si>
+    <t>the pause portion works for the game</t>
+  </si>
+  <si>
+    <t>mouse input works, bugs have been introduced from the additonal ships implemented</t>
+  </si>
+  <si>
+    <t>not able to be implemented this sprint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -508,6 +529,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -924,7 +959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1250,15 +1285,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1593,11 +1636,11 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -2062,7 +2105,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="55"/>
       <c r="C30" s="30" t="s">
@@ -2676,10 +2719,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2727,26 +2770,26 @@
       <c r="F3" s="68"/>
       <c r="G3" s="69"/>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+    <row r="4" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="91" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2778,9 +2821,7 @@
       <c r="F6" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="83" t="s">
-        <v>127</v>
-      </c>
+      <c r="G6" s="83"/>
     </row>
     <row r="7" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
@@ -2799,7 +2840,7 @@
       </c>
       <c r="G7" s="83"/>
     </row>
-    <row r="8" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="83" t="s">
@@ -2903,12 +2944,16 @@
       <c r="E14" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-    </row>
-    <row r="15" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="84"/>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="92" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="84"/>
@@ -2918,8 +2963,12 @@
       <c r="E15" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
+      <c r="F15" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="84"/>
@@ -2953,7 +3002,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="93"/>
       <c r="B18" s="83"/>
       <c r="C18" s="86" t="s">
         <v>42</v>
@@ -2965,22 +3015,26 @@
         <v>71</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
       <c r="B19" s="83"/>
-      <c r="E19" s="65"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
     </row>
     <row r="20" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="92" t="s">
         <v>111</v>
       </c>
       <c r="C20" s="86"/>
@@ -2988,14 +3042,18 @@
         <v>60</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-    </row>
-    <row r="21" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="F20" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="89"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="86"/>
       <c r="D21" s="86"/>
       <c r="E21" s="83"/>
@@ -3014,33 +3072,35 @@
         <v>94</v>
       </c>
       <c r="E22" s="87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="G22" s="87"/>
+    </row>
+    <row r="23" spans="1:7" ht="37.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="87"/>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="92" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="87"/>
       <c r="D23" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-    </row>
-    <row r="24" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="87"/>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="92" t="s">
         <v>110</v>
       </c>
       <c r="C24" s="87"/>
@@ -3048,21 +3108,25 @@
         <v>94</v>
       </c>
       <c r="E24" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
+        <v>120</v>
+      </c>
+      <c r="F24" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="87" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="87"/>
-      <c r="B25" s="89"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="87"/>
       <c r="D25" s="87"/>
       <c r="E25" s="87"/>
       <c r="F25" s="87"/>
       <c r="G25" s="87"/>
     </row>
-    <row r="26" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="87" t="s">
         <v>11</v>
       </c>
@@ -3074,12 +3138,14 @@
         <v>96</v>
       </c>
       <c r="E26" s="87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F26" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="87" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="87"/>
@@ -3091,7 +3157,7 @@
         <v>96</v>
       </c>
       <c r="E27" s="87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F27" s="87" t="s">
         <v>77</v>
@@ -3100,33 +3166,54 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="65" t="s">
+    <row r="28" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="87"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+    </row>
+    <row r="29" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B29" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="C29" s="93"/>
+      <c r="D29" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E29" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="93"/>
+      <c r="B30" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="93" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="65" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E30" s="65"/>
+      <c r="F30" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="93" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E31" s="65"/>
@@ -3170,16 +3257,18 @@
     <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E44" s="65"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="72"/>
-    </row>
-    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E45" s="65"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="70"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="72"/>
+    </row>
     <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -3191,7 +3280,8 @@
     <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="129">
   <si>
     <t>Sprint Backlog Template:
 - Rollover unclosed user stories from the preivious sprint. 
@@ -401,6 +401,9 @@
     <t>Other ships are able to be played</t>
   </si>
   <si>
+    <t>Enemies take different amounts of daamge or certain weapon types to deal extra damage</t>
+  </si>
+  <si>
     <t>The user is able to learn how to play</t>
   </si>
   <si>
@@ -422,41 +425,17 @@
     <t>the sound is able to be paused or audio level changed</t>
   </si>
   <si>
-    <t>needs to be cleaned up due to introduction of bugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">done </t>
-  </si>
-  <si>
-    <t>base level bullets are implementd, higher level bullets are not</t>
-  </si>
-  <si>
-    <t>api hooks created for use for weapon and ship classes to damage enemies</t>
-  </si>
-  <si>
-    <t>Enemies take different amounts of damge or certain weapon types to deal extra damage</t>
-  </si>
-  <si>
-    <t>waiting on higher level weapons to be implemented</t>
-  </si>
-  <si>
-    <t>pending all items integrated</t>
-  </si>
-  <si>
-    <t>the pause portion works for the game</t>
-  </si>
-  <si>
-    <t>mouse input works, bugs have been introduced from the additonal ships implemented</t>
-  </si>
-  <si>
-    <t>not able to be implemented this sprint</t>
+    <t>Mechanics work. May polish later and add some animation if time allows</t>
+  </si>
+  <si>
+    <t>base level bullets are implementd, higher level bullets are not. Bullet animation is not implemented</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -529,20 +508,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -959,7 +924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1285,23 +1250,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1636,11 +1593,11 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -2105,7 +2062,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="55"/>
       <c r="C30" s="30" t="s">
@@ -2719,10 +2676,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2770,26 +2727,26 @@
       <c r="F3" s="68"/>
       <c r="G3" s="69"/>
     </row>
-    <row r="4" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="82" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2821,7 +2778,9 @@
       <c r="F6" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="83"/>
+      <c r="G6" s="83" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
@@ -2840,7 +2799,7 @@
       </c>
       <c r="G7" s="83"/>
     </row>
-    <row r="8" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="83" t="s">
@@ -2944,16 +2903,12 @@
       <c r="E14" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="84" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+    </row>
+    <row r="15" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="84"/>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="89" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="84"/>
@@ -2963,12 +2918,8 @@
       <c r="E15" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="84" t="s">
-        <v>126</v>
-      </c>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="84"/>
@@ -3002,8 +2953,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="93"/>
+    <row r="18" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="83"/>
       <c r="C18" s="86" t="s">
         <v>42</v>
@@ -3015,26 +2965,22 @@
         <v>71</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G18" s="83" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="83"/>
       <c r="B19" s="83"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
+      <c r="E19" s="65"/>
     </row>
     <row r="20" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="89" t="s">
         <v>111</v>
       </c>
       <c r="C20" s="86"/>
@@ -3042,18 +2988,14 @@
         <v>60</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="83" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+    </row>
+    <row r="21" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="83"/>
-      <c r="B21" s="92"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="86"/>
       <c r="D21" s="86"/>
       <c r="E21" s="83"/>
@@ -3072,35 +3014,33 @@
         <v>94</v>
       </c>
       <c r="E22" s="87" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F22" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="87"/>
-    </row>
-    <row r="23" spans="1:7" ht="37.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="G22" s="87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="87"/>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="89" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="87"/>
       <c r="D23" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="87" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+    </row>
+    <row r="24" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="87"/>
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="89" t="s">
         <v>110</v>
       </c>
       <c r="C24" s="87"/>
@@ -3108,25 +3048,21 @@
         <v>94</v>
       </c>
       <c r="E24" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="87" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
     </row>
     <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="87"/>
-      <c r="B25" s="92"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="87"/>
       <c r="D25" s="87"/>
       <c r="E25" s="87"/>
       <c r="F25" s="87"/>
       <c r="G25" s="87"/>
     </row>
-    <row r="26" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="87" t="s">
         <v>11</v>
       </c>
@@ -3138,14 +3074,12 @@
         <v>96</v>
       </c>
       <c r="E26" s="87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F26" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="87" t="s">
-        <v>134</v>
-      </c>
+      <c r="G26" s="87"/>
     </row>
     <row r="27" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="87"/>
@@ -3157,7 +3091,7 @@
         <v>96</v>
       </c>
       <c r="E27" s="87" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F27" s="87" t="s">
         <v>77</v>
@@ -3166,54 +3100,33 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="87"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-    </row>
-    <row r="29" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="92" t="s">
+      <c r="B28" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93" t="s">
+      <c r="D28" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="93" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="93"/>
-      <c r="B30" s="92" t="s">
+      <c r="E28" s="65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93" t="s">
+      <c r="D29" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="93" t="s">
-        <v>135</v>
-      </c>
+      <c r="E29" s="65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E30" s="65"/>
     </row>
     <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E31" s="65"/>
@@ -3257,18 +3170,16 @@
     <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E44" s="65"/>
     </row>
-    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E45" s="65"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="72"/>
-    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="70"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="72"/>
+    </row>
+    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -3280,8 +3191,7 @@
     <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -5,16 +5,17 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="134">
   <si>
     <t>Sprint Backlog Template:
 - Rollover unclosed user stories from the preivious sprint. 
@@ -383,27 +384,18 @@
     <t>As a player, I want exciting sounds/music.</t>
   </si>
   <si>
-    <t>As a player, I want to choose to have music and sound effect on or off.</t>
-  </si>
-  <si>
     <t>Audio</t>
   </si>
   <si>
     <t>Brian</t>
   </si>
   <si>
-    <t>Brain</t>
-  </si>
-  <si>
     <t>The selection screen displays</t>
   </si>
   <si>
     <t>Other ships are able to be played</t>
   </si>
   <si>
-    <t>Enemies take different amounts of daamge or certain weapon types to deal extra damage</t>
-  </si>
-  <si>
     <t>The user is able to learn how to play</t>
   </si>
   <si>
@@ -422,13 +414,37 @@
     <t>sound is  playing on the game and loops properly</t>
   </si>
   <si>
-    <t>the sound is able to be paused or audio level changed</t>
-  </si>
-  <si>
-    <t>Mechanics work. May polish later and add some animation if time allows</t>
-  </si>
-  <si>
-    <t>base level bullets are implementd, higher level bullets are not. Bullet animation is not implemented</t>
+    <t>base level bullets are implementd, higher level bullets are not</t>
+  </si>
+  <si>
+    <t>needs to be cleaned up due to introduction of bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done </t>
+  </si>
+  <si>
+    <t>api hooks created for use for weapon and ship classes to damage enemies</t>
+  </si>
+  <si>
+    <t>Enemies take different amounts of damge or certain weapon types to deal extra damage</t>
+  </si>
+  <si>
+    <t>waiting on higher level weapons to be implemented</t>
+  </si>
+  <si>
+    <t>pending all items integrated</t>
+  </si>
+  <si>
+    <t>the pause portion works for the game</t>
+  </si>
+  <si>
+    <t>As a player, i want to play with only using a mouse. </t>
+  </si>
+  <si>
+    <t>mouse input works, bugs have been introduced from the additonal ships implemented</t>
+  </si>
+  <si>
+    <t>not able to be implemented this sprint</t>
   </si>
 </sst>
 </file>
@@ -924,7 +940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1259,6 +1275,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2062,7 +2082,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="55"/>
       <c r="C30" s="30" t="s">
@@ -2678,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A7" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2778,9 +2798,7 @@
       <c r="F6" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="83" t="s">
-        <v>127</v>
-      </c>
+      <c r="G6" s="83"/>
     </row>
     <row r="7" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
@@ -2799,7 +2817,7 @@
       </c>
       <c r="G7" s="83"/>
     </row>
-    <row r="8" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="83" t="s">
@@ -2815,7 +2833,7 @@
         <v>76</v>
       </c>
       <c r="G8" s="83" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2901,10 +2919,14 @@
         <v>48</v>
       </c>
       <c r="E14" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
+        <v>116</v>
+      </c>
+      <c r="F14" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="84" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="84"/>
@@ -2916,10 +2938,14 @@
         <v>48</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
+        <v>115</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="84"/>
@@ -2953,7 +2979,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="92"/>
       <c r="B18" s="83"/>
       <c r="C18" s="86" t="s">
         <v>42</v>
@@ -2965,16 +2992,20 @@
         <v>71</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="83" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="83"/>
       <c r="B19" s="83"/>
-      <c r="E19" s="65"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="85" t="s">
@@ -2988,10 +3019,14 @@
         <v>60</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
+        <v>127</v>
+      </c>
+      <c r="F20" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="83" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="83"/>
@@ -3014,14 +3049,12 @@
         <v>94</v>
       </c>
       <c r="E22" s="87" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F22" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="87" t="s">
-        <v>101</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G22" s="87"/>
     </row>
     <row r="23" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="87"/>
@@ -3032,13 +3065,17 @@
       <c r="D23" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-    </row>
-    <row r="24" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="87"/>
       <c r="B24" s="89" t="s">
         <v>110</v>
@@ -3048,10 +3085,14 @@
         <v>94</v>
       </c>
       <c r="E24" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
+        <v>118</v>
+      </c>
+      <c r="F24" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="87" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="87"/>
@@ -3062,24 +3103,26 @@
       <c r="F25" s="87"/>
       <c r="G25" s="87"/>
     </row>
-    <row r="26" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="87" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="88" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C26" s="87"/>
       <c r="D26" s="87" t="s">
         <v>96</v>
       </c>
       <c r="E26" s="87" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F26" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="87" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="87"/>
@@ -3091,7 +3134,7 @@
         <v>96</v>
       </c>
       <c r="E27" s="87" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F27" s="87" t="s">
         <v>77</v>
@@ -3101,28 +3144,33 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="92"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+    </row>
+    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="65" t="s">
-        <v>126</v>
+      <c r="E29" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="92" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -3196,4 +3244,415 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.85546875" style="80" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="17.28515625" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="64"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
+    </row>
+    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
+      <c r="B6" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+    </row>
+    <row r="8" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+    </row>
+    <row r="10" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+    </row>
+    <row r="12" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="83" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="83"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+    </row>
+    <row r="14" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="87"/>
+      <c r="B14" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="87"/>
+      <c r="B15" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="87"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+    </row>
+    <row r="17" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="87"/>
+      <c r="B18" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="87" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="92"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E21" s="65"/>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E22" s="65"/>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E23" s="65"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E24" s="65"/>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E25" s="65"/>
+    </row>
+    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E26" s="65"/>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E27" s="65"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E28" s="65"/>
+    </row>
+    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E29" s="65"/>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E30" s="65"/>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E31" s="65"/>
+    </row>
+    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E32" s="65"/>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E33" s="65"/>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E34" s="65"/>
+    </row>
+    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E35" s="65"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="70"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="72"/>
+    </row>
+    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="136">
   <si>
     <t>Sprint Backlog Template:
 - Rollover unclosed user stories from the preivious sprint. 
@@ -445,6 +445,12 @@
   </si>
   <si>
     <t>not able to be implemented this sprint</t>
+  </si>
+  <si>
+    <t>Dates: Oct. 15, 2015 - Oct. 29, 2015</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
   </si>
 </sst>
 </file>
@@ -940,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1269,6 +1275,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1277,9 +1287,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1613,11 +1626,11 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -2529,7 +2542,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="83"/>
       <c r="B23" s="83"/>
       <c r="C23" s="86" t="s">
@@ -2980,7 +2993,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="83"/>
       <c r="C18" s="86" t="s">
         <v>42</v>
@@ -3001,11 +3014,11 @@
     <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="83"/>
       <c r="B19" s="83"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="85" t="s">
@@ -3065,7 +3078,7 @@
       <c r="D23" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="92" t="s">
+      <c r="E23" s="90" t="s">
         <v>119</v>
       </c>
       <c r="F23" s="87" t="s">
@@ -3144,32 +3157,32 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="92"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="89"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="90" t="s">
         <v>113</v>
       </c>
       <c r="B29" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92" t="s">
+      <c r="C29" s="90"/>
+      <c r="D29" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="92" t="s">
+      <c r="E29" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="92" t="s">
+      <c r="F29" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="92" t="s">
+      <c r="G29" s="90" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3251,7 +3264,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3287,11 +3300,11 @@
       <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
-        <v>107</v>
+      <c r="A3" s="67" t="s">
+        <v>135</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
@@ -3431,11 +3444,11 @@
     <row r="11" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="83"/>
       <c r="B11" s="83"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="85" t="s">
@@ -3476,7 +3489,7 @@
       <c r="D14" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="92" t="s">
+      <c r="E14" s="90" t="s">
         <v>119</v>
       </c>
       <c r="F14" s="87" t="s">
@@ -3555,32 +3568,32 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="92"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="92" t="s">
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+    </row>
+    <row r="20" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92" t="s">
+      <c r="C20" s="93"/>
+      <c r="D20" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="92" t="s">
+      <c r="E20" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="92" t="s">
+      <c r="F20" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="92" t="s">
+      <c r="G20" s="93" t="s">
         <v>133</v>
       </c>
     </row>

--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="141">
   <si>
     <t>Sprint Backlog Template:
 - Rollover unclosed user stories from the preivious sprint. 
@@ -452,12 +452,27 @@
   <si>
     <t>Sprint 4</t>
   </si>
+  <si>
+    <t>the player is damaged when hit by a enemy shot</t>
+  </si>
+  <si>
+    <t>weapons do differing amounts of damage to the ships</t>
+  </si>
+  <si>
+    <t>all items have over behavior for them</t>
+  </si>
+  <si>
+    <t>audio does play but the volume is not controllable, not mutes</t>
+  </si>
+  <si>
+    <t>different weapons are implemented</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -530,6 +545,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -946,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1287,11 +1308,38 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2542,7 +2590,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="83"/>
       <c r="B23" s="83"/>
       <c r="C23" s="86" t="s">
@@ -3261,10 +3309,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3312,290 +3360,274 @@
       <c r="F3" s="68"/>
       <c r="G3" s="69"/>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="94" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+    <row r="5" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="96"/>
+      <c r="B6" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="83" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="83" t="s">
+      <c r="G6" s="95" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+    </row>
+    <row r="8" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="83" t="s">
+      <c r="E8" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-    </row>
-    <row r="8" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="83" t="s">
+      <c r="G8" s="95" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="96"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+    </row>
+    <row r="10" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+    </row>
+    <row r="12" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="95"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+    </row>
+    <row r="14" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="100"/>
+      <c r="B14" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="100"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+    </row>
+    <row r="16" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-    </row>
-    <row r="10" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="83" t="s">
+      <c r="G16" s="100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="100"/>
+      <c r="B17" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="100" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="97"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+    </row>
+    <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="83" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-    </row>
-    <row r="12" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="83" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-    </row>
-    <row r="14" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="87"/>
-      <c r="B14" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="87" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="87"/>
-      <c r="B15" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="87" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="87"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-    </row>
-    <row r="17" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="87" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="87"/>
-      <c r="B18" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="90"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-    </row>
-    <row r="20" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="93" t="s">
-        <v>133</v>
-      </c>
+      <c r="G19" s="100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E20" s="65"/>
     </row>
     <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E21" s="65"/>
@@ -3639,18 +3671,16 @@
     <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E34" s="65"/>
     </row>
-    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E35" s="65"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="72"/>
-    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="70"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="72"/>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -3662,8 +3692,7 @@
     <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 3" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="143">
   <si>
     <t>Sprint Backlog Template:
 - Rollover unclosed user stories from the preivious sprint. 
@@ -466,6 +467,12 @@
   </si>
   <si>
     <t>different weapons are implemented</t>
+  </si>
+  <si>
+    <t>As a player, I want a simple menu that allows me to see how many lives I have left.</t>
+  </si>
+  <si>
+    <t>As a player, I want to choose to have music and sound effect on or off.</t>
   </si>
 </sst>
 </file>
@@ -967,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1300,6 +1307,43 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1307,40 +1351,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1674,11 +1684,11 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -3311,8 +3321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3361,268 +3371,268 @@
       <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="94" t="s">
+      <c r="G4" s="92" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95" t="s">
+      <c r="B5" s="93"/>
+      <c r="C5" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="95" t="s">
+      <c r="F5" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="93" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="96"/>
-      <c r="B6" s="95" t="s">
+      <c r="A6" s="94"/>
+      <c r="B6" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="93" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="96"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
     </row>
     <row r="8" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="95" t="s">
+      <c r="F8" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G8" s="93" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
     </row>
     <row r="10" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="95" t="s">
+      <c r="G10" s="93" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
     </row>
     <row r="12" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99" t="s">
+      <c r="C12" s="97"/>
+      <c r="D12" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="95" t="s">
+      <c r="F12" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="95" t="s">
+      <c r="G12" s="93" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
     </row>
     <row r="14" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="100"/>
-      <c r="B14" s="98" t="s">
+      <c r="A14" s="98"/>
+      <c r="B14" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100" t="s">
+      <c r="C14" s="98"/>
+      <c r="D14" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="100" t="s">
+      <c r="F14" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="100" t="s">
+      <c r="G14" s="98" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="100"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
     </row>
     <row r="16" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100" t="s">
+      <c r="C16" s="98"/>
+      <c r="D16" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="100" t="s">
+      <c r="F16" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="100" t="s">
+      <c r="G16" s="98" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
-      <c r="B17" s="101" t="s">
+      <c r="A17" s="98"/>
+      <c r="B17" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100" t="s">
+      <c r="C17" s="98"/>
+      <c r="D17" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="100" t="s">
+      <c r="E17" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="100" t="s">
+      <c r="F17" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="100" t="s">
+      <c r="G17" s="98" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
     </row>
     <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100" t="s">
+      <c r="C19" s="98"/>
+      <c r="D19" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="100" t="s">
+      <c r="E19" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="100" t="s">
+      <c r="F19" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="100" t="s">
+      <c r="G19" s="98" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3697,4 +3707,332 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.85546875" style="80" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="17.28515625" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="64"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="94"/>
+      <c r="B6" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+    </row>
+    <row r="8" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="94"/>
+      <c r="B8" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="94"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+    </row>
+    <row r="11" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="94"/>
+      <c r="B11" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="98"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+    </row>
+    <row r="14" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="95"/>
+      <c r="B14" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A15" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="65"/>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E16" s="65"/>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="65"/>
+    </row>
+    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="65"/>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E19" s="65"/>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E20" s="65"/>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E21" s="65"/>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E22" s="65"/>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E23" s="65"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E24" s="65"/>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E25" s="65"/>
+    </row>
+    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E26" s="65"/>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E27" s="65"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E28" s="65"/>
+    </row>
+    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E29" s="65"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="71"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="72"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="70"/>
+    </row>
+    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="144">
   <si>
     <t>Sprint Backlog Template:
 - Rollover unclosed user stories from the preivious sprint. 
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>As a player, I want to choose to have music and sound effect on or off.</t>
+  </si>
+  <si>
+    <t>introduction of weapons, added new images for use when ship is moving, added temporary invulnerable state and image when damaged</t>
   </si>
 </sst>
 </file>
@@ -2769,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2993,7 +2996,7 @@
         <v>116</v>
       </c>
       <c r="F14" s="84" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" s="84" t="s">
         <v>124</v>
@@ -3322,7 +3325,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3636,11 +3639,29 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E20" s="65"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E21" s="65"/>
+    <row r="21" spans="1:7" ht="94.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="84" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E22" s="65"/>
@@ -3714,7 +3735,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3975,10 +3996,22 @@
       </c>
       <c r="E18" s="65"/>
     </row>
-    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>48</v>
+      </c>
       <c r="E19" s="65"/>
     </row>
-    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>48</v>
+      </c>
       <c r="E20" s="65"/>
     </row>
     <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">

--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="160">
   <si>
     <t>Sprint Backlog Template:
 - Rollover unclosed user stories from the preivious sprint. 
@@ -466,9 +466,6 @@
     <t>audio does play but the volume is not controllable, not mutes</t>
   </si>
   <si>
-    <t>different weapons are implemented</t>
-  </si>
-  <si>
     <t>As a player, I want a simple menu that allows me to see how many lives I have left.</t>
   </si>
   <si>
@@ -476,13 +473,64 @@
   </si>
   <si>
     <t>introduction of weapons, added new images for use when ship is moving, added temporary invulnerable state and image when damaged</t>
+  </si>
+  <si>
+    <t>lives update when taking damage</t>
+  </si>
+  <si>
+    <t>strings are being updated in the hover text</t>
+  </si>
+  <si>
+    <t>brian/yuchen</t>
+  </si>
+  <si>
+    <t>Gameplay</t>
+  </si>
+  <si>
+    <t>Ryan, Will</t>
+  </si>
+  <si>
+    <t>some cheats are entered for debugging purposes or spawning items</t>
+  </si>
+  <si>
+    <t>sound can be muted</t>
+  </si>
+  <si>
+    <t>audio does play but the volume is not controllable</t>
+  </si>
+  <si>
+    <t>Level Creation</t>
+  </si>
+  <si>
+    <t>levels change once a player gets a high score</t>
+  </si>
+  <si>
+    <t>pending implementation of other settings to be changed for gameplay</t>
+  </si>
+  <si>
+    <t>images are on the hud to display information for the player</t>
+  </si>
+  <si>
+    <t>other ships are created and fly able with differing stat values and weapons</t>
+  </si>
+  <si>
+    <t>Dates: Oct. 29, 2015 - Nov. 12, 2015</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>different weapons are implemented, missiles include tracking to enemies</t>
+  </si>
+  <si>
+    <t>Weapons track to enemies and cause varying amounts of damage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -562,6 +610,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -571,7 +625,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -973,11 +1027,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1344,15 +1411,46 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1687,11 +1785,11 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -3325,7 +3423,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3396,26 +3494,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A5" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="93"/>
-      <c r="C5" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="93" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="93" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A6" s="94"/>
@@ -3660,7 +3743,7 @@
         <v>76</v>
       </c>
       <c r="G21" s="84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -3732,10 +3815,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3750,7 +3833,7 @@
     <col min="8" max="16384" width="17.28515625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -3759,7 +3842,7 @@
       <c r="F1" s="62"/>
       <c r="G1" s="64"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
@@ -3770,12 +3853,12 @@
       <c r="F2" s="75"/>
       <c r="G2" s="76"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="67" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
@@ -3783,7 +3866,7 @@
       <c r="F3" s="68"/>
       <c r="G3" s="69"/>
     </row>
-    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A4" s="91" t="s">
         <v>2</v>
       </c>
@@ -3806,7 +3889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A5" s="93" t="s">
         <v>10</v>
       </c>
@@ -3829,29 +3912,36 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A6" s="94"/>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="C6" s="104"/>
+      <c r="D6" s="104" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-    </row>
-    <row r="8" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="94"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="94"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+    </row>
+    <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="93" t="s">
+        <v>14</v>
+      </c>
       <c r="B8" s="93" t="s">
         <v>33</v>
       </c>
@@ -3859,7 +3949,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="93" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="E8" s="93" t="s">
         <v>64</v>
@@ -3871,150 +3961,195 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="89" t="s">
-        <v>141</v>
+    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A9" s="109"/>
+      <c r="B9" s="107" t="s">
+        <v>140</v>
       </c>
       <c r="C9" s="94"/>
       <c r="D9" s="94" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="F9" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A10" s="94"/>
-      <c r="B10" s="89"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="94"/>
       <c r="D10" s="94"/>
       <c r="E10" s="94"/>
       <c r="F10" s="94"/>
       <c r="G10" s="94"/>
     </row>
-    <row r="11" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="94"/>
-      <c r="B11" s="99" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="98" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="98" t="s">
+    <row r="11" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="98" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="98" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="98"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-    </row>
-    <row r="14" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="95"/>
+      <c r="G11" s="93" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.2">
+      <c r="B12" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="102"/>
+      <c r="F12" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="104" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="103"/>
+    </row>
+    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A13" s="107"/>
+      <c r="B13" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="104" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="105"/>
+    </row>
+    <row r="14" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="107"/>
       <c r="B14" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="105"/>
+    </row>
+    <row r="15" spans="1:8" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98" t="s">
+      <c r="C15" s="93"/>
+      <c r="D15" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="E15" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="98" t="s">
+      <c r="F15" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="98" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A15" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="89" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="65" t="s">
+      <c r="G15" s="93" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A16" s="109"/>
+      <c r="B16" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="65"/>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E16" s="65"/>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="100" t="s">
+      <c r="E16" s="104"/>
+      <c r="F16" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+    </row>
+    <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.2">
+      <c r="A18" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="C18" s="104"/>
+      <c r="D18" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="65"/>
-    </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="89" t="s">
+      <c r="E18" s="104"/>
+      <c r="F18" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="104" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="54" x14ac:dyDescent="0.2">
+      <c r="A19" s="104"/>
+      <c r="B19" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="C19" s="104"/>
+      <c r="D19" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="65"/>
-    </row>
-    <row r="19" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="65"/>
-    </row>
-    <row r="20" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="65" t="s">
-        <v>48</v>
-      </c>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="106"/>
       <c r="E20" s="65"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="106"/>
       <c r="E21" s="65"/>
     </row>
     <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -4041,18 +4176,20 @@
     <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E29" s="65"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="71"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="72"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="70"/>
-    </row>
-    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E30" s="65"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="72"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="70"/>
+    </row>
     <row r="33" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="35" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -4063,7 +4200,8 @@
     <row r="40" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="41" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="42" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
